--- a/MOSFERATWO TAYDA BOM.xlsx
+++ b/MOSFERATWO TAYDA BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\13 DEC 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFBC920-C1FF-4AEF-8936-005520BDACEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ADEF41-FE5D-4925-AD8D-FEE2B5D96771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,7 +951,7 @@
   <dimension ref="A1:F969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/MOSFERATWO TAYDA BOM.xlsx
+++ b/MOSFERATWO TAYDA BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\13 DEC 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ADEF41-FE5D-4925-AD8D-FEE2B5D96771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF2FCDF-FAC3-4D69-9B28-324BE1DD6120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,7 +951,7 @@
   <dimension ref="A1:F969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/MOSFERATWO TAYDA BOM.xlsx
+++ b/MOSFERATWO TAYDA BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\13 DEC 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF2FCDF-FAC3-4D69-9B28-324BE1DD6120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2F950D-815E-49E0-9173-058ACB024DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAYDA ORDER" sheetId="4" r:id="rId1"/>
@@ -259,12 +259,6 @@
     <t>SPDT1, SPDT2</t>
   </si>
   <si>
-    <t>RV09AF-40-20K-A25K</t>
-  </si>
-  <si>
-    <t>25K OHM Logarithmic Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU A-1880</t>
-  </si>
-  <si>
     <t>HEART, BITE</t>
   </si>
   <si>
@@ -293,6 +287,12 @@
   </si>
   <si>
     <t>Skip to the beginning of the images gallery DC Power Jack 2.1mm Barrel-Type PCB Mount SKU A-4118</t>
+  </si>
+  <si>
+    <t>10K OHM Anti-Log Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU A-1845</t>
+  </si>
+  <si>
+    <t>RV09AF-40-20K-C10K</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
   <dimension ref="A1:F969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1">
         <f>(LEN(A12)-LEN(SUBSTITUTE(A12,",",""))+1)</f>
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -2322,7 +2322,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2412,7 +2412,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>44</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>44</v>
@@ -2457,7 +2457,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8">
         <v>12.5</v>
@@ -2466,7 +2466,7 @@
         <v>104.5</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -2483,7 +2483,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -2500,7 +2500,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -2517,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -2551,15 +2551,15 @@
         <v>109</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="C18" s="8">
         <v>10</v>
@@ -2568,7 +2568,7 @@
         <v>40.5</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -2585,15 +2585,15 @@
         <v>33.25</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="C20" s="8">
         <v>52</v>
@@ -2602,7 +2602,7 @@
         <v>40.5</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -2619,12 +2619,12 @@
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -2816,7 +2816,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>64</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>64</v>

--- a/MOSFERATWO TAYDA BOM.xlsx
+++ b/MOSFERATWO TAYDA BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\13 DEC 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2F950D-815E-49E0-9173-058ACB024DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F855C952-66F8-4947-BC03-7FA752C5C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAYDA ORDER" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>RefDes</t>
   </si>
@@ -193,15 +193,9 @@
     <t>LABEL J1</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>LABEL J2</t>
   </si>
   <si>
-    <t>OUT</t>
-  </si>
-  <si>
     <t>BRAND</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>LABEL V1</t>
   </si>
   <si>
-    <t>9V DC</t>
-  </si>
-  <si>
     <t>ADOBE ILLUSTRATOR 125B BLANK TEMPLATE</t>
   </si>
   <si>
@@ -280,19 +271,43 @@
     <t>Font</t>
   </si>
   <si>
-    <t>MOSFERATWO</t>
-  </si>
-  <si>
     <t>MOSFERATWO TAYDA UV PRINT TEMPLATE</t>
   </si>
   <si>
-    <t>Skip to the beginning of the images gallery DC Power Jack 2.1mm Barrel-Type PCB Mount SKU A-4118</t>
-  </si>
-  <si>
     <t>10K OHM Anti-Log Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU A-1845</t>
   </si>
   <si>
     <t>RV09AF-40-20K-C10K</t>
+  </si>
+  <si>
+    <t>DC Power Jack 2.1mm Barrel-Type PCB Mount SKU A-4118</t>
+  </si>
+  <si>
+    <t>Mosferatwo</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Inpout</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Bite</t>
+  </si>
+  <si>
+    <t>9V</t>
   </si>
 </sst>
 </file>
@@ -951,7 +966,7 @@
   <dimension ref="A1:F969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1012,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1201,13 +1216,13 @@
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1">
         <f>(LEN(A12)-LEN(SUBSTITUTE(A12,",",""))+1)</f>
@@ -1226,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -1243,7 +1258,7 @@
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>34</v>
@@ -2289,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFEA8CF-992A-4813-B7FE-909E47DD104D}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2322,7 +2337,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2412,7 +2427,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>44</v>
@@ -2440,7 +2455,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>44</v>
@@ -2457,7 +2472,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="8">
         <v>12.5</v>
@@ -2466,15 +2481,15 @@
         <v>104.5</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
+      <c r="B13" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C13" s="8">
         <v>10</v>
@@ -2483,15 +2498,15 @@
         <v>23</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
+      <c r="B14" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="C14" s="8">
         <v>52</v>
@@ -2500,15 +2515,15 @@
         <v>23</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>51</v>
+      <c r="B15" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="C15" s="8">
         <v>46</v>
@@ -2517,15 +2532,15 @@
         <v>3</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="C16" s="8">
         <v>16</v>
@@ -2534,15 +2549,15 @@
         <v>3</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="8">
         <v>10.5</v>
@@ -2551,15 +2566,15 @@
         <v>109</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C18" s="8">
         <v>10</v>
@@ -2568,15 +2583,15 @@
         <v>40.5</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="C19" s="8">
         <v>31.5</v>
@@ -2585,15 +2600,15 @@
         <v>33.25</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C20" s="8">
         <v>52</v>
@@ -2602,15 +2617,15 @@
         <v>40.5</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C21" s="8">
         <v>31</v>
@@ -2619,17 +2634,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2666,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2683,7 +2698,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
@@ -2700,7 +2715,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8">
         <v>-21</v>
@@ -2717,7 +2732,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8">
         <v>21</v>
@@ -2731,10 +2746,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8">
         <v>15</v>
@@ -2748,10 +2763,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="8">
         <v>-15</v>
@@ -2768,7 +2783,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="8">
         <v>-21</v>
@@ -2785,7 +2800,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="8">
         <v>21</v>
@@ -2802,7 +2817,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
@@ -2816,10 +2831,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C10" s="8">
         <v>-21</v>
@@ -2836,7 +2851,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
@@ -2850,10 +2865,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" s="8">
         <v>21</v>
@@ -2870,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="8">
         <v>0</v>
@@ -2879,15 +2894,15 @@
         <v>1.5</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -2896,7 +2911,7 @@
         <v>9.5</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
